--- a/data/trans_orig/P19E_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19E_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36F2207A-2A0F-4D23-8BC9-41D397DB1191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24514303-F9C0-486B-883F-9EAF552DF7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A1EC4922-C623-4601-ADBA-8687B685283C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FFAEEE31-D0B9-4BEB-BE3A-58A4904BF661}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -75,28 +75,28 @@
     <t>52,56%</t>
   </si>
   <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
   </si>
   <si>
     <t>40,22%</t>
   </si>
   <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
   </si>
   <si>
     <t>45,51%</t>
   </si>
   <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>47,44%</t>
   </si>
   <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
   </si>
   <si>
     <t>59,78%</t>
   </si>
   <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
   </si>
   <si>
     <t>54,49%</t>
   </si>
   <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>32,35%</t>
   </si>
   <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
   </si>
   <si>
     <t>19,81%</t>
   </si>
   <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
   </si>
   <si>
     <t>26,21%</t>
   </si>
   <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
   </si>
   <si>
     <t>67,65%</t>
   </si>
   <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
   </si>
   <si>
     <t>80,19%</t>
   </si>
   <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
   </si>
   <si>
     <t>73,79%</t>
   </si>
   <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -195,109 +195,109 @@
     <t>20,12%</t>
   </si>
   <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
   </si>
   <si>
     <t>10,5%</t>
   </si>
   <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
   </si>
   <si>
     <t>15,29%</t>
   </si>
   <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
   </si>
   <si>
     <t>79,88%</t>
   </si>
   <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
   </si>
   <si>
     <t>89,5%</t>
   </si>
   <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
   </si>
   <si>
     <t>84,71%</t>
   </si>
   <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
   </si>
   <si>
     <t>34,74%</t>
   </si>
   <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
   </si>
   <si>
     <t>23,98%</t>
   </si>
   <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
   </si>
   <si>
     <t>29,23%</t>
   </si>
   <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
   </si>
   <si>
     <t>65,26%</t>
   </si>
   <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
   </si>
   <si>
     <t>76,02%</t>
   </si>
   <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
   </si>
   <si>
     <t>70,77%</t>
   </si>
   <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -309,217 +309,217 @@
     <t>48,09%</t>
   </si>
   <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
   </si>
   <si>
     <t>35,2%</t>
   </si>
   <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
   </si>
   <si>
     <t>40,29%</t>
   </si>
   <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
   </si>
   <si>
     <t>51,91%</t>
   </si>
   <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
   </si>
   <si>
     <t>64,8%</t>
   </si>
   <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
   </si>
   <si>
     <t>59,71%</t>
   </si>
   <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
   </si>
   <si>
     <t>22,59%</t>
   </si>
   <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
   </si>
   <si>
     <t>12,01%</t>
   </si>
   <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
   </si>
   <si>
     <t>17,19%</t>
   </si>
   <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
   </si>
   <si>
     <t>77,41%</t>
   </si>
   <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
   </si>
   <si>
     <t>87,99%</t>
   </si>
   <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
   </si>
   <si>
     <t>82,81%</t>
   </si>
   <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
   </si>
   <si>
     <t>15,28%</t>
   </si>
   <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
   </si>
   <si>
     <t>7,13%</t>
   </si>
   <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
   </si>
   <si>
     <t>11,08%</t>
   </si>
   <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
   </si>
   <si>
     <t>84,72%</t>
   </si>
   <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
   </si>
   <si>
     <t>92,87%</t>
   </si>
   <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
   </si>
   <si>
     <t>88,92%</t>
   </si>
   <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
   </si>
   <si>
     <t>25,17%</t>
   </si>
   <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
   </si>
   <si>
     <t>16,11%</t>
   </si>
   <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
   </si>
   <si>
     <t>20,38%</t>
   </si>
   <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
   </si>
   <si>
     <t>74,83%</t>
   </si>
   <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
   </si>
   <si>
     <t>83,89%</t>
   </si>
   <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
   </si>
   <si>
     <t>79,62%</t>
   </si>
   <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
   </si>
 </sst>
 </file>
@@ -931,7 +931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E1D688C-C5FB-464C-8740-BA2B168D560E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9770F870-FEEC-459A-814E-C1DFFA5EB6BD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1682,7 +1682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E291FD3D-D9A8-4CCE-AD7F-25E12452F56A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C54F3A-B6A7-4196-BBA8-5D5DCCC42088}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1854,7 +1854,7 @@
         <v>331</v>
       </c>
       <c r="D5" s="7">
-        <v>276954</v>
+        <v>276953</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>98</v>
@@ -1905,7 +1905,7 @@
         <v>680</v>
       </c>
       <c r="D6" s="7">
-        <v>533490</v>
+        <v>533489</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P19E_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19E_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24514303-F9C0-486B-883F-9EAF552DF7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7378AA2-C32F-4BAB-A948-C42B3DE5DC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FFAEEE31-D0B9-4BEB-BE3A-58A4904BF661}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E699643D-CF34-434B-B0A5-C75BDF757573}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="157">
   <si>
     <t>Población que se cepilla los dientes una o ninguna vez al día en 2016 (Tasa respuesta: 97,38%)</t>
   </si>
@@ -306,220 +306,208 @@
     <t>Población que se cepilla los dientes una o ninguna vez al día en 2023 (Tasa respuesta: 99,26%)</t>
   </si>
   <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
   </si>
   <si>
     <t>5,72%</t>
   </si>
   <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
   </si>
   <si>
     <t>94,28%</t>
   </si>
   <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
   </si>
 </sst>
 </file>
@@ -931,7 +919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9770F870-FEEC-459A-814E-C1DFFA5EB6BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2522AF55-92E6-4F4F-AA1E-F1B72AF752B0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1682,7 +1670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C54F3A-B6A7-4196-BBA8-5D5DCCC42088}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC43A46-1DFF-4B92-B9DE-641743E7178F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1803,7 +1791,7 @@
         <v>349</v>
       </c>
       <c r="D4" s="7">
-        <v>256536</v>
+        <v>246523</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>89</v>
@@ -1818,7 +1806,7 @@
         <v>525</v>
       </c>
       <c r="I4" s="7">
-        <v>287739</v>
+        <v>264307</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>92</v>
@@ -1833,7 +1821,7 @@
         <v>874</v>
       </c>
       <c r="N4" s="7">
-        <v>544275</v>
+        <v>510830</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>95</v>
@@ -1842,7 +1830,7 @@
         <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1854,46 +1842,46 @@
         <v>331</v>
       </c>
       <c r="D5" s="7">
-        <v>276953</v>
+        <v>260632</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>870</v>
       </c>
       <c r="I5" s="7">
-        <v>529658</v>
+        <v>474414</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1201</v>
       </c>
       <c r="N5" s="7">
-        <v>806611</v>
+        <v>735046</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1905,7 +1893,7 @@
         <v>680</v>
       </c>
       <c r="D6" s="7">
-        <v>533489</v>
+        <v>507155</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1920,7 +1908,7 @@
         <v>1395</v>
       </c>
       <c r="I6" s="7">
-        <v>817397</v>
+        <v>738721</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1935,7 +1923,7 @@
         <v>2075</v>
       </c>
       <c r="N6" s="7">
-        <v>1350886</v>
+        <v>1245876</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1958,46 +1946,46 @@
         <v>500</v>
       </c>
       <c r="D7" s="7">
-        <v>487050</v>
+        <v>476027</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>412</v>
       </c>
       <c r="I7" s="7">
-        <v>269706</v>
+        <v>252392</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>912</v>
       </c>
       <c r="N7" s="7">
-        <v>756756</v>
+        <v>728420</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2009,46 +1997,46 @@
         <v>1483</v>
       </c>
       <c r="D8" s="7">
-        <v>1668800</v>
+        <v>1808459</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>2502</v>
       </c>
       <c r="I8" s="7">
-        <v>1976314</v>
+        <v>1982192</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>3985</v>
       </c>
       <c r="N8" s="7">
-        <v>3645114</v>
+        <v>3790650</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2060,7 +2048,7 @@
         <v>1983</v>
       </c>
       <c r="D9" s="7">
-        <v>2155850</v>
+        <v>2284486</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2075,7 +2063,7 @@
         <v>2914</v>
       </c>
       <c r="I9" s="7">
-        <v>2246020</v>
+        <v>2234584</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2090,7 +2078,7 @@
         <v>4897</v>
       </c>
       <c r="N9" s="7">
-        <v>4401870</v>
+        <v>4519070</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2113,46 +2101,46 @@
         <v>98</v>
       </c>
       <c r="D10" s="7">
-        <v>102690</v>
+        <v>103983</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>80</v>
       </c>
       <c r="I10" s="7">
-        <v>50880</v>
+        <v>47362</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>178</v>
       </c>
       <c r="N10" s="7">
-        <v>153569</v>
+        <v>151344</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2164,46 +2152,46 @@
         <v>582</v>
       </c>
       <c r="D11" s="7">
-        <v>569567</v>
+        <v>541902</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>923</v>
       </c>
       <c r="I11" s="7">
-        <v>662392</v>
+        <v>612537</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>1505</v>
       </c>
       <c r="N11" s="7">
-        <v>1231960</v>
+        <v>1154440</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2215,7 +2203,7 @@
         <v>680</v>
       </c>
       <c r="D12" s="7">
-        <v>672257</v>
+        <v>645885</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2230,7 +2218,7 @@
         <v>1003</v>
       </c>
       <c r="I12" s="7">
-        <v>713272</v>
+        <v>659899</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2245,7 +2233,7 @@
         <v>1683</v>
       </c>
       <c r="N12" s="7">
-        <v>1385529</v>
+        <v>1305784</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2268,46 +2256,46 @@
         <v>947</v>
       </c>
       <c r="D13" s="7">
-        <v>846276</v>
+        <v>826533</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H13" s="7">
         <v>1017</v>
       </c>
       <c r="I13" s="7">
-        <v>608325</v>
+        <v>564061</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M13" s="7">
         <v>1964</v>
       </c>
       <c r="N13" s="7">
-        <v>1454600</v>
+        <v>1390594</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2319,46 +2307,46 @@
         <v>2396</v>
       </c>
       <c r="D14" s="7">
-        <v>2515321</v>
+        <v>2610993</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
         <v>4295</v>
       </c>
       <c r="I14" s="7">
-        <v>3168364</v>
+        <v>3069143</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>6691</v>
       </c>
       <c r="N14" s="7">
-        <v>5683686</v>
+        <v>5680136</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2370,7 +2358,7 @@
         <v>3343</v>
       </c>
       <c r="D15" s="7">
-        <v>3361597</v>
+        <v>3437526</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2385,7 +2373,7 @@
         <v>5312</v>
       </c>
       <c r="I15" s="7">
-        <v>3776689</v>
+        <v>3633204</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2400,7 +2388,7 @@
         <v>8655</v>
       </c>
       <c r="N15" s="7">
-        <v>7138286</v>
+        <v>7070730</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
